--- a/courses/cnns-xmuf21/files/grading/19级网安课程名单.xlsx
+++ b/courses/cnns-xmuf21/files/grading/19级网安课程名单.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\iCloudDrive\博士期间\博士课程\计算机网络与安全\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6500FB32-CABC-3E40-9A5D-EA7BC6B2471B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5752EF-90CF-4023-8817-1B55ACA666B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7812" yWindow="456" windowWidth="4356" windowHeight="3096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="无指定班级" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
   <si>
     <t>课程成绩单</t>
   </si>
@@ -291,18 +291,45 @@
   </si>
   <si>
     <t>日期: 2021-10-14</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低分：43.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分：88.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分：75.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -344,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,6 +384,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542185</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>535879</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>136976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D6D037-E7EC-4DC5-BAED-B89908314476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4916065" y="8166175"/>
+          <a:ext cx="3613194" cy="2760721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,20 +737,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -685,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -699,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -710,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -718,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -746,10 +844,13 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11920192203528</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -770,8 +871,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -794,8 +898,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -818,8 +925,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -842,8 +952,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -866,8 +979,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -890,8 +1006,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -914,8 +1033,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -938,8 +1060,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -962,8 +1087,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -986,8 +1114,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1010,8 +1141,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1034,8 +1168,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1058,8 +1195,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1082,8 +1222,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1106,8 +1249,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1130,8 +1276,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1154,8 +1303,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1178,8 +1330,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1202,8 +1357,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1226,8 +1384,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1250,8 +1411,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1274,8 +1438,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1291,14 +1458,17 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" t="s">
+        <v>91</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1321,8 +1491,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1345,8 +1518,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1369,8 +1545,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1393,8 +1572,11 @@
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1417,8 +1599,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1441,8 +1626,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1465,8 +1653,11 @@
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1488,8 +1679,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -1512,17 +1706,36 @@
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>89</v>
       </c>
+      <c r="J43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1532,14 +1745,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1690,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1736,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1759,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1782,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1874,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1943,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1966,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1989,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2012,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2035,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2058,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2081,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2127,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2150,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2173,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2196,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2219,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2242,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2265,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2311,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2334,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2357,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2366,6 +2579,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/courses/cnns-xmuf21/files/grading/19级网安课程名单.xlsx
+++ b/courses/cnns-xmuf21/files/grading/19级网安课程名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\iCloudDrive\博士期间\博士课程\计算机网络与安全\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5752EF-90CF-4023-8817-1B55ACA666B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB4AC6-1C65-44B4-9B13-CE9BF08609FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="456" windowWidth="4356" windowHeight="3096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8928" yWindow="456" windowWidth="4356" windowHeight="3096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -301,15 +301,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最低分：43.5</t>
+    <t>平均分：84.39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高分：88.5</t>
+    <t>最低分：57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均分：75.14</t>
+    <t>最高分：94</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,22 +391,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542185</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>119455</xdr:rowOff>
+      <xdr:rowOff>117818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>535879</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>136976</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D6D037-E7EC-4DC5-BAED-B89908314476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FA12AF-5293-408C-8012-C48DEA7F89E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -429,8 +429,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4916065" y="8166175"/>
-          <a:ext cx="3613194" cy="2760721"/>
+          <a:off x="4396740" y="8164538"/>
+          <a:ext cx="4015740" cy="3067342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:P44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11">
-        <v>77.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12">
-        <v>78.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14">
-        <v>86.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18">
-        <v>67.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19">
-        <v>43.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21">
-        <v>73.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22">
-        <v>78.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23">
-        <v>70.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27">
-        <v>83.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28">
-        <v>88.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29">
-        <v>70.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31">
-        <v>86</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33">
-        <v>81.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35">
-        <v>85.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37">
-        <v>78.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41">
-        <v>78.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,12 +1723,12 @@
         <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
